--- a/NaverBookRank.xlsx
+++ b/NaverBookRank.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>title</t>
   </si>
@@ -42,7 +42,7 @@
     <t>설민석의 삼국지 1 (누구나 쉽게 시작하고, 모두가 빠져드는 이야기)</t>
   </si>
   <si>
-    <t>왜 아이에게 그런 말을 했을까 (아이를 서울대에 보내고 나서 뒤늦게 시작한 부모 반성 수업)</t>
+    <t>왜 아이에게 그런 말을 했을까</t>
   </si>
   <si>
     <t>천년의 질문 1 (조정래 장편소설)</t>
@@ -63,13 +63,13 @@
     <t>역사의 쓸모</t>
   </si>
   <si>
-    <t>천년의 질문 3/완결 (조정래 장편소설)</t>
+    <t>천년의 질문 3 (조정래 장편소설)</t>
   </si>
   <si>
     <t>설민석의 세계사 대모험 2 (히틀러의 두 얼굴)</t>
   </si>
   <si>
-    <t>Go Go 카카오프렌즈 9 (세계 역사 문화 체험 학습만화,스페인)</t>
+    <t>Go Go 카카오프렌즈 9 (스페인)</t>
   </si>
   <si>
     <t>아주 작은 습관의 힘 (최고의 변화는 어떻게 만들어지는가)</t>
@@ -87,13 +87,13 @@
     <t>맛불리 다이어트 연구소 (88 to the 55)</t>
   </si>
   <si>
-    <t>유아 식판식 (편식 걱정 없이 혼자서도 잘 먹는, 개정판)</t>
+    <t>유아 식판식 (편식 걱정 없이 혼자서도 잘 먹는)</t>
   </si>
   <si>
     <t>[예약판매] 마도조사 1 (묵향동후 장편소설)</t>
   </si>
   <si>
-    <t>축구를 하며 생각한 것들 (손흥민 첫 에세이)</t>
+    <t>축구를 하며 생각한 것들</t>
   </si>
   <si>
     <t>인생의 마지막 순간에서 (죽음과 죽어감에 관한 실질적 조언)</t>
@@ -108,7 +108,7 @@
     <t>어느 날 공주가 되어버렸다 1 (일반판)</t>
   </si>
   <si>
-    <t xml:space="preserve">유시민(작가) 저 </t>
+    <t xml:space="preserve">유시민(작가) 글 </t>
   </si>
   <si>
     <t xml:space="preserve">김영하(소설가) 저 </t>
@@ -135,10 +135,10 @@
     <t xml:space="preserve">최태성(학원인) 저 </t>
   </si>
   <si>
-    <t xml:space="preserve">설민석(학원인), 잼 스토리 저 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">김미영(만화가) 저 </t>
+    <t xml:space="preserve">설민석(학원인), 잼 스토리 글 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">김미영(만화가) 글 </t>
   </si>
   <si>
     <t xml:space="preserve">제임스 클리어 저 </t>
@@ -228,7 +228,7 @@
     <t xml:space="preserve"> 브레인스토어 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 로크미디어 </t>
+    <t xml:space="preserve"> 비잉(Being) </t>
   </si>
   <si>
     <t xml:space="preserve"> 아이세움 </t>
@@ -249,49 +249,52 @@
     <t xml:space="preserve"> 2019.07.17</t>
   </si>
   <si>
+    <t xml:space="preserve"> 2019.06.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.06.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018.05.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.07.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.06.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.07.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.07.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.02.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.05.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.02.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.07.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.06.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.07.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.06.19</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2019.06.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.06.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2018.05.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.07.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2015.06.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.06.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.07.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.07.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.02.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.05.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.02.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.07.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.06.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.07.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019.06.19</t>
   </si>
   <si>
     <t xml:space="preserve"> 2019.07.22</t>
@@ -675,12 +678,12 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="85.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -1088,7 +1091,7 @@
         <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1105,7 +1108,7 @@
         <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1122,7 +1125,7 @@
         <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
